--- a/tests/resources/TEXT.xlsx
+++ b/tests/resources/TEXT.xlsx
@@ -427,17 +427,20 @@
           <t>Hello World</t>
         </is>
       </c>
-      <c r="B1">
-        <f>LEFT(A1, 5)</f>
-        <v/>
-      </c>
-      <c r="E1">
-        <f>TRIM(A1)</f>
-        <v/>
-      </c>
-      <c r="F1">
-        <f>REPLACE(A1, 1, 5, "Hi")</f>
-        <v/>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hello</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Hello World</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Hi World</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -446,13 +449,15 @@
           <t xml:space="preserve">  Excel Functions  </t>
         </is>
       </c>
-      <c r="B2">
-        <f>LEFT(A1, 1)</f>
-        <v/>
-      </c>
-      <c r="E2">
-        <f>TRIM(A2)</f>
-        <v/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Excel Functions</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -461,17 +466,20 @@
           <t>UPPERCASE</t>
         </is>
       </c>
-      <c r="B3">
-        <f>LEFT(A1)</f>
-        <v/>
-      </c>
-      <c r="C3">
-        <f>UPPER(A3)</f>
-        <v/>
-      </c>
-      <c r="D3">
-        <f>LOWER(A3)</f>
-        <v/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>UPPERCASE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>uppercase</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -480,13 +488,15 @@
           <t>lowercase</t>
         </is>
       </c>
-      <c r="C4">
-        <f>UPPER(A4)</f>
-        <v/>
-      </c>
-      <c r="D4">
-        <f>LOWER(A4)</f>
-        <v/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LOWERCASE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>lowercase</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -495,13 +505,15 @@
           <t>MiXeD cAsE</t>
         </is>
       </c>
-      <c r="C5">
-        <f>UPPER(A5)</f>
-        <v/>
-      </c>
-      <c r="D5">
-        <f>LOWER(A5)</f>
-        <v/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MIXED CASE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>mixed case</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -510,9 +522,10 @@
           <t>Replace This Text</t>
         </is>
       </c>
-      <c r="F6">
-        <f>REPLACE(A6, 9, 4, "That")</f>
-        <v/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Replace That Text</t>
+        </is>
       </c>
     </row>
   </sheetData>
